--- a/biology/Biochimie/Gentianose/Gentianose.xlsx
+++ b/biology/Biochimie/Gentianose/Gentianose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le gentianose est un triholoside (oligoside) extrait de la racine de gentiane.
@@ -512,9 +524,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gentianose a été découvert en 1882 par Meyer dans les racines de la gentiane jaune (Gentiana lutea), de laquelle il tire son nom, dans un extrait alcoolique (95 %) de racines séchées[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gentianose a été découvert en 1882 par Meyer dans les racines de la gentiane jaune (Gentiana lutea), de laquelle il tire son nom, dans un extrait alcoolique (95 %) de racines séchées.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gentianose est présent dans un nombre important de racines de plantes comme les gentianes (Gentiana lutea, Gentiana purpurea, Gentiana asclepiadea, Gentiana punctata &amp; Gentiana cruciata)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gentianose est présent dans un nombre important de racines de plantes comme les gentianes (Gentiana lutea, Gentiana purpurea, Gentiana asclepiadea, Gentiana punctata &amp; Gentiana cruciata).
 </t>
         </is>
       </c>
@@ -576,13 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Structure
-Le gentianose est composé de deux unités de glucose et d'une unité fructose. Ou plus simplement c'est une unité de glucose attachée à une unité de saccharose par son glucose ou une unité de fructose liée a une unité de gentiobiose.
-Propriétés physiques
-Le gentiobiose est un solide qui fond vers 212 °C[3] et qui possède une saveur légèrement sucrée[4]. Sa formule chimique est C18H32O16 et sa masse molaire de 504,44 g·mol-1.
-Propriétés chimiques
-Le gentianose est un sucre non réducteur (pas de OH libre sur un carbone anomérique) donc ne réagit pas avec la liqueur de Fehling, celle-ci restant bleue en sa présence.
-Son hydrolyse totale donne une molécule de fructose pour 2 molécules de glucose. L'hydrolyse partielle conduit soit à la formation de gentiobiose et de fructose (par la gentianase) ou de saccharose et de glucose (par l'émulsine)[4].
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gentianose est composé de deux unités de glucose et d'une unité fructose. Ou plus simplement c'est une unité de glucose attachée à une unité de saccharose par son glucose ou une unité de fructose liée a une unité de gentiobiose.
 </t>
         </is>
       </c>
@@ -608,12 +624,89 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Structure et propriétés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Propriétés physiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gentiobiose est un solide qui fond vers 212 °C et qui possède une saveur légèrement sucrée. Sa formule chimique est C18H32O16 et sa masse molaire de 504,44 g·mol-1.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gentianose</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gentianose</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Structure et propriétés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Propriétés chimiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gentianose est un sucre non réducteur (pas de OH libre sur un carbone anomérique) donc ne réagit pas avec la liqueur de Fehling, celle-ci restant bleue en sa présence.
+Son hydrolyse totale donne une molécule de fructose pour 2 molécules de glucose. L'hydrolyse partielle conduit soit à la formation de gentiobiose et de fructose (par la gentianase) ou de saccharose et de glucose (par l'émulsine).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gentianose</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gentianose</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gentianose est formé par l'action des levansucrases (famille des glycosyltransférases) sur le gentiobiose ou le saccharose[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gentianose est formé par l'action des levansucrases (famille des glycosyltransférases) sur le gentiobiose ou le saccharose.
 </t>
         </is>
       </c>
